--- a/biology/Botanique/Aira_provincialis/Aira_provincialis.xlsx
+++ b/biology/Botanique/Aira_provincialis/Aira_provincialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aira provincialis, la canche de Provence, est une espèce de plantes herbacées de la famille des Poaceae (graminées), originaire des régions tempérées et froides.
 Ces plantes sont souvent appelées des canches.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 mars 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 mars 2017) :
 Aira caryophyllea var. provicialis (Jord.) Fiori
 Aira pulchella subsp. provincialis (Jord.) Asch. &amp; Graebn.
 Aira pulchella var. provincialis (Jord.) Fiori
@@ -548,7 +562,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitat naturel est limitée à la France : sud-est de la partie continentale (Var et Alpes-Maritimes) et Corse, Les données sur la présence de la plante sur l'île de Crète (Grèce) sont douteuses.
 Elle a été introduite dans l'État australien de Nouvelle-Galles du Sud, où on l'a découverte dans les parcs et les zones perturbées de la forêt des Blue Mountains.
@@ -581,10 +597,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique « Aira » dérive d'un mot grec qui désignait une graminée.
-L'épithète spécifique, « provincialis » est un terme latin signifiant « provincial » qui fait référence à l'origine provençale de cette espèce[3].
+L'épithète spécifique, « provincialis » est un terme latin signifiant « provincial » qui fait référence à l'origine provençale de cette espèce.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle à racine fibreuse, les tiges sont minces, fibreuse, droite ou ascendant de 10-40 cm de hauteur, feuilles courtes et hérissée, filiformes, obtus.
 Inflorescence, panicule avec un seul épillet contenant deux fleurs, avec poils courts à la base.
@@ -647,9 +667,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans le livre rouge de la flore menacée de France de l'Inventaire national du patrimoine naturel (INPN)[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans le livre rouge de la flore menacée de France de l'Inventaire national du patrimoine naturel (INPN).
 </t>
         </is>
       </c>
